--- a/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics_Attendance & Leave Application.xlsx
+++ b/WSC/Test Cases/SLCM/Priority1/WSC SLCM_Academics_Attendance & Leave Application.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="326">
   <si>
     <t>Contents</t>
   </si>
@@ -199,12 +199,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Executed  By</t>
-  </si>
-  <si>
-    <t>Aman Kumar Singh</t>
-  </si>
-  <si>
     <t>S#</t>
   </si>
   <si>
@@ -217,15 +211,15 @@
     <t>User should be able to login to WSC application. and should sucessfully navigate to Academics &gt; Attendance &amp; Leave Application page &gt; Student Attendance</t>
   </si>
   <si>
-    <t>User Id:-Administrator Pwd:-wsc@123</t>
+    <t>url: wscdemo.eduleadonline.com
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>The page should open with all the generic buttons and fields as a normal application behavior</t>
   </si>
   <si>
-    <t>URL: erp.worldskillcenter.org</t>
-  </si>
-  <si>
     <t>Student Group</t>
   </si>
   <si>
@@ -268,19 +262,23 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Actual Results (SLCM Admin)</t>
+    <t xml:space="preserve">Actual Results </t>
   </si>
   <si>
     <t>Pass/Fail/Not Executed/Suspended</t>
   </si>
   <si>
-    <t>Actual Results (Trainer)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">click on </t>
     </r>
     <r>
@@ -301,47 +299,28 @@
  page open with all the pre-requisites</t>
   </si>
   <si>
-    <t>Student Attendance
- page is opening with all the pre-requisites</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t xml:space="preserve">click on "ADD  Student Attendance" at the top right corner </t>
   </si>
   <si>
     <t>The New Student Attendance page opens up.</t>
   </si>
   <si>
-    <t>The New Student Attendance  page is opening.</t>
-  </si>
-  <si>
     <t>fill the 'Attendance for' dropdown as Dayscholar/ Hosteler</t>
   </si>
   <si>
     <t>User should able to fill</t>
   </si>
   <si>
-    <t>User is able to fill</t>
-  </si>
-  <si>
     <t>Verify the attendance for dropdown when select  Dayscholar</t>
   </si>
   <si>
     <t>Dayscholar class details fields should be open on this page</t>
   </si>
   <si>
-    <t>Dayscholar class details fields is opening on this page, when select  Dayscholar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the attendance for dropdown when select hosteler </t>
   </si>
   <si>
     <t>Hostel details fields should be open on this page</t>
-  </si>
-  <si>
-    <t>Hostel details fields should be open on this page, when select  hosteler</t>
   </si>
   <si>
     <t>Enter Student</t>
@@ -351,46 +330,30 @@
 in a dropdown where user will select from the available options</t>
   </si>
   <si>
-    <t>this is a link field and the value is fetched student list 
-in a dropdown where user is able to select from the available options</t>
-  </si>
-  <si>
     <t xml:space="preserve">when user try to save without entering the student </t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter the Student"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter the Student"</t>
-  </si>
-  <si>
     <t>check if the student name is auto populating the moment user select the above the field</t>
   </si>
   <si>
     <t>when user enter the student ID in the above field this field should auto filled with student name</t>
   </si>
   <si>
-    <t>when user enter the student ID in the above field this field is auto filled with student name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Module </t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from module list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from module list </t>
-  </si>
-  <si>
     <t>Enter class</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from class list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from class list </t>
-  </si>
-  <si>
     <t>Enter Student Group</t>
   </si>
   <si>
@@ -403,70 +366,46 @@
     <t xml:space="preserve">this is a link field and the value should be fetched from trainer list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from trainer list </t>
-  </si>
-  <si>
     <t>Enter scedule type</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from  schedule type list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from  schedule type list </t>
-  </si>
-  <si>
     <t>Enter Date</t>
   </si>
   <si>
     <t>a datepicker calendar should popup and user should able to select the date. Date should not accepted the future dates</t>
   </si>
   <si>
-    <t>a datepicker calendar popup is opening and user is able to select the date. Date is not accepting the future dates</t>
-  </si>
-  <si>
     <t>When user try to save without entering date</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter date"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter date"</t>
-  </si>
-  <si>
     <t>Enter Status</t>
   </si>
   <si>
     <t>this should appear as a dropdown where use should able to select from the options available</t>
   </si>
   <si>
-    <t>this is appearing as a dropdown where use is able to select from the options available</t>
-  </si>
-  <si>
     <t>When user try to save without entering Status</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter Status"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Status"</t>
-  </si>
-  <si>
     <t>Enter course</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched from course list that student have enrolled  </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched from course list that student have enrolled  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Once user filled all the required details and perfrom click action on SAVE button </t>
   </si>
   <si>
     <t>A list view should be visible where user should able to view whether all the details are filled by the user or not in every feature</t>
-  </si>
-  <si>
-    <t>A list view is visible where user is able to view whether all the details are filled by the user or not in every feature</t>
   </si>
   <si>
     <t>User Roles &amp; Permission</t>
@@ -510,9 +449,6 @@
     <t xml:space="preserve">Sucessfully login should happen and homepage must be visible to the user </t>
   </si>
   <si>
-    <t xml:space="preserve">Sucessfully login is done and homepage is visible to the user </t>
-  </si>
-  <si>
     <t xml:space="preserve">when user try to login as admin with all the invalid credentials 
 </t>
   </si>
@@ -521,10 +457,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">the warning message is showing as  please enter the valid credentials 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">when user try to login as admin but with blank credentials 
 </t>
   </si>
@@ -532,9 +464,6 @@
     <t>Please enter the mandatory details</t>
   </si>
   <si>
-    <t>Please enter the mandatory details is showing</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user try to login as Student with all the valid credentials 
 </t>
   </si>
@@ -555,9 +484,6 @@
   </si>
   <si>
     <t>the trainer should have all the access of read,Write, create, delete, submit, cancel, Amend so they can view, edit and should able to do modifications</t>
-  </si>
-  <si>
-    <t>the trainer have all the access of read,Write, create, delete, submit, cancel, Amend so they can view, edit and should able to do modifications</t>
   </si>
   <si>
     <t xml:space="preserve">when user try to login as Trainer with all the invalid credentials 
@@ -627,40 +553,24 @@
  page open with all the pre-requisites</t>
   </si>
   <si>
-    <t>Student Attendance tool
- page is opening with all the pre-requisites</t>
-  </si>
-  <si>
     <t>Enter Based On</t>
   </si>
   <si>
     <t>this is dropdown where user should able to choose any single option based upon users selection some few fields will appear accordingly</t>
   </si>
   <si>
-    <t>this is dropdown where user is able to choose any single option based upon users selection some few fields is appearing accordingly</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user selects student group in the based on field </t>
   </si>
   <si>
     <t xml:space="preserve">user should able to see some fields accordingly </t>
   </si>
   <si>
-    <t xml:space="preserve">user is able to see some fields accordingly </t>
-  </si>
-  <si>
     <t>click on  'Group Based on' dropdown, select the data</t>
   </si>
   <si>
     <t>all datas related to group based on like module, mentor-mentee, batch &amp; activity should be shown in dropdown list. User should able to select a single option from the dropdown</t>
   </si>
   <si>
-    <t>all datas related to group based on like module, mentor-mentee, batch &amp; activity should be shown in dropdown list</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t xml:space="preserve">When user selects class schedule in the based on field </t>
   </si>
   <si>
@@ -670,52 +580,31 @@
     <t>this is a link field and the value should be fetched from Academic Year list and user are allowed to select only single options</t>
   </si>
   <si>
-    <t>this is a link field and the value is fetched from Academic Year list and user are allowed to select only single options</t>
-  </si>
-  <si>
     <t>Enter Academic Term</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched based on selected Academic Year </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched based on selected Academic Year </t>
-  </si>
-  <si>
     <t>a datepicker calendar should popup and user should able to select the date</t>
   </si>
   <si>
-    <t>a datepicker calendar should popup and user should able to select the date. Date is not accepting future date</t>
-  </si>
-  <si>
     <t>Enter module schedule</t>
   </si>
   <si>
     <t xml:space="preserve">this is a link field and the value should be fetched based on module schedule list </t>
   </si>
   <si>
-    <t xml:space="preserve">this is a link field and the value is fetched based on module schedule list </t>
-  </si>
-  <si>
     <t xml:space="preserve">When user selects Hoste in the based on field </t>
   </si>
   <si>
     <t xml:space="preserve"> user should able to see a pop up dialog box with Hostel details which should consist two fields hostel &amp; Hostel Room</t>
   </si>
   <si>
-    <t xml:space="preserve"> user is able to see a pop up dialog box with Hostel details which  consist two fields hostel &amp; Hostel Room</t>
-  </si>
-  <si>
     <t xml:space="preserve">enter the hostel details </t>
   </si>
   <si>
     <t>when user fill all the details and hit get Students button the list should appear as per the details entered by the user</t>
-  </si>
-  <si>
-    <t>when user fill all the details and hit get Students button the list is showing as per the details entered by the user</t>
-  </si>
-  <si>
-    <t>A list view  is visible where user is able to view whether all the details are filled by the user or not in every feature</t>
   </si>
   <si>
     <t xml:space="preserve"> Admin only has the access to  Select, Read, Write, Create, Delete but cannot Submit, cancel,  Amend
@@ -900,10 +789,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">the warning message is showing please enter the valid credentials 
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1045,16 +930,10 @@
     <t xml:space="preserve">The Student Leave Application allows you to keep a track of leaves for a student. </t>
   </si>
   <si>
-    <t>Executed By</t>
-  </si>
-  <si>
     <t>User should be able to login to WSC application. and should sucessfully navigate to Academics &gt; Attendance &amp; Leave Application page &gt; Student Leave Application</t>
   </si>
   <si>
     <t>verify the sub modules of the Student Leave Application</t>
-  </si>
-  <si>
-    <t>Actual Results (Student)</t>
   </si>
   <si>
     <r>
@@ -1085,52 +964,33 @@
  page open with all the pre-requisites</t>
   </si>
   <si>
-    <t>Student Student Leave Application
- page is open with all the pre-requisites</t>
-  </si>
-  <si>
     <t xml:space="preserve">click on "ADD  Student Leave Application" at the top right corner </t>
   </si>
   <si>
     <t>The New Student Leave Application page opens up.</t>
   </si>
   <si>
-    <t>The New Student Leave Application page is open</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Student </t>
   </si>
   <si>
     <t>this is a link field and the value should be fetched from Student  list and user are allowed to select only single options</t>
   </si>
   <si>
-    <t>this is a link field and the value is fetched from Student  list and user are allowed to select only single options</t>
-  </si>
-  <si>
     <t>when user try to save without entering Student</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter Student"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Student"</t>
-  </si>
-  <si>
     <t>check when user selects the above student the student name should auto populate</t>
   </si>
   <si>
     <t xml:space="preserve">user should able to see that the student name field is auto filled when user select student and user only has the read view </t>
   </si>
   <si>
-    <t xml:space="preserve">user is able to see that the student name field is auto filled when user select student and user only has the read view </t>
-  </si>
-  <si>
     <t>Enter from date</t>
   </si>
   <si>
-    <t>a datepicker calendar is showing and user is able to select the date</t>
-  </si>
-  <si>
     <t>When user try to save without entering from date</t>
   </si>
   <si>
@@ -1146,100 +1006,64 @@
     <t>this field should appear as a dropdown where user should able to select the options from the dropdowns available. user should select only single options from dropdown</t>
   </si>
   <si>
-    <t>this field is showing as a dropdown where user is able to select the options from the dropdowns available. user is selecting only single options from dropdown</t>
-  </si>
-  <si>
     <t>this is a link field and the value should be fetched from Student  group list and user are allowed to select only single options</t>
   </si>
   <si>
-    <t>this is a link field and the value is fetched from Student  group list and user are allowed to select only single options</t>
-  </si>
-  <si>
     <t>when user try to save without entering Student group</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter Student     Group"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Student     Group"</t>
-  </si>
-  <si>
     <t>this is a link field and the value should be fetched based on module schedule list and user should able to select</t>
   </si>
   <si>
-    <t>this is a link field and the value is fetched based on module schedule list and user is able to select</t>
-  </si>
-  <si>
     <t>Enter Reason</t>
   </si>
   <si>
     <t>this field should accept Text value and user should able to fill it manually</t>
   </si>
   <si>
-    <t>this field is accepting Text value and user is able to fill it manually</t>
-  </si>
-  <si>
     <t>When user try to save without entering Reason</t>
   </si>
   <si>
     <t>Error/warning mesaage should be displayed "Please enter Reason"</t>
   </si>
   <si>
-    <t>Error/warning mesaage is displaying "Please enter Reason"</t>
-  </si>
-  <si>
     <t>after all the requiered details are filled check that user able to perform save action</t>
   </si>
   <si>
     <t xml:space="preserve">user should able to save sucessfully after filling all the required details </t>
   </si>
   <si>
-    <t xml:space="preserve">user is able to save sucessfully after filling all the required details </t>
-  </si>
-  <si>
     <t>check if newly created leave application is viewable in the list view</t>
   </si>
   <si>
     <t>after sucessful save the newly created leave application should appear in the list view on student leave application page</t>
   </si>
   <si>
-    <t>after sucessful save the newly created leave application is appear in the list view on student leave application page</t>
-  </si>
-  <si>
     <t>check that if submit button is clicked. on submission of the newly created leave application</t>
   </si>
   <si>
     <t>when user click on submit button the status should be visible to the user named as Approved, Rejected, on hold</t>
   </si>
   <si>
-    <t>when user click on submit button the status is visible to the user named as Approved, Rejected, on hold</t>
-  </si>
-  <si>
     <t>check when class advisor aproves the leave</t>
   </si>
   <si>
     <t xml:space="preserve">when class advisor approves the leave the satus should be changed to approved and should be visible </t>
   </si>
   <si>
-    <t xml:space="preserve">when class advisor approves the leave the satus is changed to approved and  visible </t>
-  </si>
-  <si>
     <t>check when class advisor reject the leave</t>
   </si>
   <si>
     <t>when class advisor Reject the leave the satus should be changed to rejected and should be visible.</t>
   </si>
   <si>
-    <t>when class advisor Reject the leave the satus is changed to rejected and  visible.</t>
-  </si>
-  <si>
     <t xml:space="preserve">check when class advisor put the leave on hold </t>
   </si>
   <si>
     <t xml:space="preserve">when class advisor put the leave on hold the satus should be changed to On Hold and should be visible but the user should able to reject or approve the leave before the leave start date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">when class advisor put the leave on hold the satus should be changed to On Hold and  visible </t>
   </si>
   <si>
     <t xml:space="preserve"> Trainer only has the access to Read, Write, Delete, Submit but cannot Select, Create, cancel, Amend
@@ -1248,9 +1072,6 @@
   <si>
     <t xml:space="preserve"> Student can Select, Read, Write, Create, Delete, Submit , cancel,  Amend. Here Student has all the access to create new, edit , modify any changes, delete or amend the entries
 </t>
-  </si>
-  <si>
-    <t>the trainer  have all the access of read,Write, create, delete, submit, cancel, Amend so they can view, edit and should able to do modifications</t>
   </si>
   <si>
     <r>
@@ -1324,10 +1145,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">the warning message is showing that please enter the valid credentials 
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1419,6 +1236,9 @@
   </si>
   <si>
     <t>User should be able to login to WSC application.</t>
+  </si>
+  <si>
+    <t>User Id:-Administrator Pwd:-wsc@123</t>
   </si>
   <si>
     <t>Verify the Notification for the Attendance &amp; Leave Application module.</t>
@@ -1852,12 +1672,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2092,7 +1912,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2114,12 +1934,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDFCBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2316,7 +2130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2426,28 +2240,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2552,16 +2344,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2570,7 +2362,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2582,120 +2374,120 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2802,10 +2594,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2813,12 +2602,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2843,12 +2638,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2871,6 +2670,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyBorder="1" applyAlignment="1">
@@ -2897,21 +2699,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2930,25 +2723,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2973,6 +2753,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3015,15 +2798,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3036,19 +2810,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3066,16 +2831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3438,41 +3194,41 @@
   </cols>
   <sheetData>
     <row r="2" s="25" customFormat="1" ht="21" spans="1:6">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="4" s="25" customFormat="1" ht="150" spans="1:13">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
     </row>
     <row r="5" s="25" customFormat="1" spans="2:13">
       <c r="B5" s="29"/>
@@ -3503,1160 +3259,844 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="97" customWidth="1"/>
-    <col min="2" max="2" width="47.4285714285714" style="97" customWidth="1"/>
-    <col min="3" max="3" width="60" style="97" customWidth="1"/>
-    <col min="4" max="4" width="57.5714285714286" style="97" customWidth="1"/>
-    <col min="5" max="5" width="22.5714285714286" style="97" customWidth="1"/>
-    <col min="6" max="6" width="43.1428571428571" style="97" customWidth="1"/>
-    <col min="7" max="7" width="23.4285714285714" style="97" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="97" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="97"/>
+    <col min="1" max="1" width="18.7142857142857" style="94" customWidth="1"/>
+    <col min="2" max="2" width="47.4285714285714" style="94" customWidth="1"/>
+    <col min="3" max="3" width="60" style="94" customWidth="1"/>
+    <col min="4" max="4" width="41.1428571428571" style="94" customWidth="1"/>
+    <col min="5" max="5" width="22.5714285714286" style="94" customWidth="1"/>
+    <col min="6" max="6" width="13.2857142857143" style="94" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="94" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="94" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" s="97" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="98" t="s">
+    <row r="1" s="94" customFormat="1" ht="60" spans="1:4">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" s="97" customFormat="1" spans="1:9">
-      <c r="A2" s="98" t="s">
+    </row>
+    <row r="2" s="94" customFormat="1" spans="1:4">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" s="94" customFormat="1" spans="1:8">
+      <c r="A4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" s="97" customFormat="1" spans="1:8">
-      <c r="A5" s="98" t="s">
+      <c r="C4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" s="94" customFormat="1" ht="75" spans="1:8">
+      <c r="A5" s="74">
+        <v>1</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="98" t="s">
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-    </row>
-    <row r="6" s="97" customFormat="1" ht="60" spans="1:8">
-      <c r="A6" s="48">
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" s="94" customFormat="1" ht="30" spans="1:8">
+      <c r="A6" s="74">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+    </row>
+    <row r="7" s="94" customFormat="1" spans="1:9">
+      <c r="A7" s="74">
+        <v>3</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" s="94" customFormat="1" spans="1:9">
+      <c r="A8" s="74">
+        <v>4</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" s="94" customFormat="1" spans="1:9">
+      <c r="A9" s="74">
+        <v>5</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" s="94" customFormat="1" spans="1:9">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" s="94" customFormat="1" spans="1:9">
+      <c r="A11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" s="94" customFormat="1" spans="1:9">
+      <c r="A12" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-    </row>
-    <row r="7" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A7" s="48">
+      <c r="B12" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" s="94" customFormat="1" spans="1:9">
+      <c r="A13" s="108">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-    </row>
-    <row r="8" s="97" customFormat="1" spans="1:9">
-      <c r="A8" s="48">
+      <c r="B13" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+    </row>
+    <row r="14" s="94" customFormat="1" spans="1:9">
+      <c r="A14" s="108">
         <v>3</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" s="97" customFormat="1" spans="1:9">
-      <c r="A9" s="48">
+      <c r="B14" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" s="94" customFormat="1" spans="1:9">
+      <c r="A15" s="108">
         <v>4</v>
       </c>
-      <c r="B9" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-    </row>
-    <row r="10" s="97" customFormat="1" spans="1:9">
-      <c r="A10" s="48">
+      <c r="B15" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+    </row>
+    <row r="16" s="94" customFormat="1" spans="1:9">
+      <c r="A16" s="108">
         <v>5</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-    </row>
-    <row r="11" s="97" customFormat="1" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-    </row>
-    <row r="12" s="97" customFormat="1" spans="1:9">
-      <c r="A12" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-    </row>
-    <row r="13" s="97" customFormat="1" spans="1:9">
-      <c r="A13" s="103">
+      <c r="B16" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" s="94" customFormat="1" ht="30" spans="1:9">
+      <c r="A17" s="108">
+        <v>6</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" s="94" customFormat="1" spans="1:9">
+      <c r="A18" s="108">
+        <v>7</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+    </row>
+    <row r="19" s="118" customFormat="1" spans="1:2">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+    </row>
+    <row r="20" s="94" customFormat="1" spans="9:9">
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" s="94" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="125" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="103"/>
+    </row>
+    <row r="22" s="94" customFormat="1" ht="45" spans="1:7">
+      <c r="A22" s="65">
         <v>1</v>
       </c>
-      <c r="B13" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-    </row>
-    <row r="14" s="97" customFormat="1" spans="1:9">
-      <c r="A14" s="111">
+      <c r="B22" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="103"/>
+    </row>
+    <row r="23" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="74">
         <v>2</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-    </row>
-    <row r="15" s="97" customFormat="1" spans="1:9">
-      <c r="A15" s="111">
+      <c r="B23" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="74">
         <v>3</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" s="97" customFormat="1" spans="1:9">
-      <c r="A16" s="111">
+      <c r="B24" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="74"/>
+      <c r="B25" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="74">
         <v>4</v>
       </c>
-      <c r="B16" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" s="97" customFormat="1" spans="1:9">
-      <c r="A17" s="111">
+      <c r="B26" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="74">
         <v>5</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" s="97" customFormat="1" ht="30" spans="1:9">
-      <c r="A18" s="111">
+      <c r="B27" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="54"/>
+    </row>
+    <row r="28" s="94" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A28" s="74">
         <v>6</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B28" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="74">
+        <v>7</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" s="94" customFormat="1" spans="1:6">
+      <c r="A30" s="74">
+        <v>8</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" s="94" customFormat="1" spans="1:6">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="74">
+        <v>9</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="108"/>
+    </row>
+    <row r="33" s="94" customFormat="1" spans="1:6">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="108"/>
+    </row>
+    <row r="34" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="74"/>
+      <c r="B34" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="74"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="108"/>
+    </row>
+    <row r="35" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="74">
+        <v>10</v>
+      </c>
+      <c r="B35" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="74"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="108"/>
+    </row>
+    <row r="36" s="94" customFormat="1" spans="1:6">
+      <c r="A36" s="74">
+        <v>11</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="108"/>
+    </row>
+    <row r="37" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="74">
+        <v>12</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="108"/>
+    </row>
+    <row r="38" s="94" customFormat="1" spans="1:6">
+      <c r="A38" s="74">
+        <v>13</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="65"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="108"/>
+    </row>
+    <row r="39" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="74">
+        <v>14</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="108"/>
+    </row>
+    <row r="40" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="74">
+        <v>15</v>
+      </c>
+      <c r="B40" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="126" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="108"/>
+    </row>
+    <row r="41" s="94" customFormat="1" spans="1:6">
+      <c r="A41" s="74"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+    </row>
+    <row r="42" s="94" customFormat="1" spans="1:6">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+    </row>
+    <row r="43" s="94" customFormat="1" spans="1:6">
+      <c r="A43" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+    </row>
+    <row r="44" s="94" customFormat="1" ht="60" spans="1:6">
+      <c r="A44" s="117">
+        <v>14</v>
+      </c>
+      <c r="B44" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="101"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="101"/>
+    </row>
+    <row r="45" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="117">
+        <v>15</v>
+      </c>
+      <c r="B45" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="101"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="101"/>
+    </row>
+    <row r="46" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A46" s="117">
+        <v>17</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="101"/>
+    </row>
+    <row r="47" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A47" s="117">
+        <v>18</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" s="94" customFormat="1" spans="1:8">
+      <c r="A48" s="118"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+    </row>
+    <row r="49" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A49" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" s="97" customFormat="1" spans="1:9">
-      <c r="A19" s="111">
-        <v>7</v>
-      </c>
-      <c r="B19" s="105" t="s">
+      <c r="C49" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-    </row>
-    <row r="20" s="124" customFormat="1" spans="1:2">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
-    </row>
-    <row r="21" s="97" customFormat="1" spans="9:9">
-      <c r="I21" s="131"/>
-    </row>
-    <row r="22" s="97" customFormat="1" ht="30" spans="1:9">
-      <c r="A22" s="133" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="133" t="s">
+      <c r="D49" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="F49" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="133" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="131"/>
-    </row>
-    <row r="23" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A23" s="47">
+    </row>
+    <row r="50" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="92">
         <v>1</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="108"/>
-      <c r="I23" s="131"/>
-    </row>
-    <row r="24" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A24" s="48">
-        <v>2</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A25" s="48">
-        <v>3</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A26" s="48"/>
-      <c r="B26" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A27" s="48">
-        <v>4</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" s="97" customFormat="1" ht="60" spans="1:8">
-      <c r="A28" s="48">
-        <v>5</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="53"/>
-    </row>
-    <row r="29" s="97" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A29" s="48">
-        <v>6</v>
-      </c>
-      <c r="B29" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A30" s="48">
-        <v>7</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="53"/>
-    </row>
-    <row r="31" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A31" s="48">
-        <v>8</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="53"/>
-    </row>
-    <row r="32" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="53"/>
-    </row>
-    <row r="33" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A33" s="48">
-        <v>9</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="111"/>
-    </row>
-    <row r="34" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="111"/>
-    </row>
-    <row r="35" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="111"/>
-    </row>
-    <row r="36" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A36" s="48">
-        <v>10</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="111"/>
-    </row>
-    <row r="37" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A37" s="48">
-        <v>11</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="111"/>
-    </row>
-    <row r="38" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A38" s="48">
-        <v>12</v>
-      </c>
-      <c r="B38" s="48" t="s">
+      <c r="B50" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C50" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D50" s="92"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="128"/>
+    </row>
+    <row r="51" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="111"/>
-    </row>
-    <row r="39" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A39" s="48">
-        <v>13</v>
-      </c>
-      <c r="B39" s="48" t="s">
+      <c r="C51" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="111"/>
-    </row>
-    <row r="40" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A40" s="48">
-        <v>14</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="111"/>
-    </row>
-    <row r="41" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A41" s="48">
-        <v>15</v>
-      </c>
-      <c r="B41" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="111"/>
-    </row>
-    <row r="42" s="97" customFormat="1" spans="1:8">
-      <c r="A42" s="48"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-    </row>
-    <row r="43" s="97" customFormat="1" spans="1:8">
-      <c r="A43" s="114"/>
-      <c r="B43" s="114"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-    </row>
-    <row r="44" s="97" customFormat="1" spans="1:8">
-      <c r="A44" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-    </row>
-    <row r="45" s="97" customFormat="1" ht="60" spans="1:8">
-      <c r="A45" s="120">
-        <v>14</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="105" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="105"/>
-    </row>
-    <row r="46" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A46" s="120">
-        <v>15</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="105"/>
-    </row>
-    <row r="47" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A47" s="120">
-        <v>17</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="105"/>
-    </row>
-    <row r="48" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="120">
-        <v>18</v>
-      </c>
-      <c r="B48" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="130" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" s="97" customFormat="1" spans="1:8">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-    </row>
-    <row r="50" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A50" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="125" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="125" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A51" s="91">
-        <v>1</v>
-      </c>
-      <c r="B51" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-    </row>
-    <row r="52" s="97" customFormat="1" ht="45" spans="1:8">
+      <c r="D51" s="52"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="101"/>
+    </row>
+    <row r="52" s="94" customFormat="1" ht="45" spans="1:6">
       <c r="A52" s="52"/>
       <c r="B52" s="52" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-    </row>
-    <row r="53" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A53" s="52"/>
+        <v>91</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="101"/>
+    </row>
+    <row r="53" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A53" s="52">
+        <v>2</v>
+      </c>
       <c r="B53" s="52" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-    </row>
-    <row r="54" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A54" s="52">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="101"/>
+    </row>
+    <row r="54" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A54" s="52"/>
       <c r="B54" s="52" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-    </row>
-    <row r="55" s="97" customFormat="1" ht="45" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="101"/>
+    </row>
+    <row r="55" s="94" customFormat="1" ht="45" spans="1:6">
       <c r="A55" s="52"/>
       <c r="B55" s="52" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-    </row>
-    <row r="56" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A56" s="52"/>
+        <v>91</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="101"/>
+    </row>
+    <row r="56" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A56" s="52">
+        <v>3</v>
+      </c>
       <c r="B56" s="52" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-    </row>
-    <row r="57" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A57" s="52">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="101"/>
+    </row>
+    <row r="57" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A57" s="52"/>
       <c r="B57" s="52" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-    </row>
-    <row r="58" s="97" customFormat="1" ht="45" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="101"/>
+    </row>
+    <row r="58" s="94" customFormat="1" ht="45" spans="1:6">
       <c r="A58" s="52"/>
       <c r="B58" s="52" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-    </row>
-    <row r="59" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-    </row>
-    <row r="60" s="132" customFormat="1" ht="45" spans="1:8">
-      <c r="A60" s="138">
+        <v>91</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="101"/>
+    </row>
+    <row r="59" s="123" customFormat="1" ht="45" spans="1:12">
+      <c r="A59" s="52">
         <v>4</v>
       </c>
-      <c r="B60" s="128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="139"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-    </row>
-    <row r="61" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A61" s="138"/>
-      <c r="B61" s="130" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="107"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-    </row>
-    <row r="62" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A62" s="138"/>
-      <c r="B62" s="130" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="107"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
+      <c r="B59" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="93"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="101"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
+      <c r="K59" s="94"/>
+      <c r="L59" s="94"/>
+    </row>
+    <row r="60" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A60" s="52"/>
+      <c r="B60" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="108"/>
+    </row>
+    <row r="61" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
+  <mergeCells count="5">
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4666,936 +4106,700 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" style="97" customWidth="1"/>
-    <col min="2" max="2" width="50.1428571428571" style="97" customWidth="1"/>
-    <col min="3" max="3" width="49" style="97" customWidth="1"/>
-    <col min="4" max="4" width="48.8571428571429" style="97" customWidth="1"/>
-    <col min="5" max="5" width="14.7142857142857" style="97" customWidth="1"/>
-    <col min="6" max="6" width="46.8571428571429" style="97" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" style="97" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" style="97" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="97"/>
+    <col min="1" max="1" width="12.4285714285714" style="94" customWidth="1"/>
+    <col min="2" max="2" width="50.1428571428571" style="94" customWidth="1"/>
+    <col min="3" max="3" width="49" style="94" customWidth="1"/>
+    <col min="4" max="4" width="37.4285714285714" style="94" customWidth="1"/>
+    <col min="5" max="5" width="20.4285714285714" style="94" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="94" customWidth="1"/>
+    <col min="7" max="7" width="17.8571428571429" style="94" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" style="94" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" s="97" customFormat="1" ht="52" customHeight="1" spans="1:9">
-      <c r="A1" s="98" t="s">
+    <row r="1" s="94" customFormat="1" ht="52" customHeight="1" spans="1:4">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" s="97" customFormat="1" spans="1:9">
-      <c r="A2" s="98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" s="94" customFormat="1" spans="1:4">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-    </row>
-    <row r="5" s="97" customFormat="1" spans="1:8">
-      <c r="A5" s="98" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+    </row>
+    <row r="4" s="94" customFormat="1" spans="1:8">
+      <c r="A4" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="98" t="s">
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+    </row>
+    <row r="5" s="94" customFormat="1" ht="75" spans="1:8">
+      <c r="A5" s="74">
+        <v>1</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-    </row>
-    <row r="6" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A6" s="48">
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+    </row>
+    <row r="6" s="94" customFormat="1" ht="30" spans="1:8">
+      <c r="A6" s="74">
+        <v>2</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+    </row>
+    <row r="7" s="94" customFormat="1" spans="1:9">
+      <c r="A7" s="74">
+        <v>3</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" s="94" customFormat="1" spans="1:9">
+      <c r="A8" s="74">
+        <v>4</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+    </row>
+    <row r="9" s="94" customFormat="1" spans="1:9">
+      <c r="A9" s="74">
+        <v>5</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+    </row>
+    <row r="10" s="94" customFormat="1" spans="1:9">
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+    </row>
+    <row r="11" s="94" customFormat="1" spans="1:9">
+      <c r="A11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+    </row>
+    <row r="12" s="94" customFormat="1" spans="1:9">
+      <c r="A12" s="99">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-    </row>
-    <row r="7" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A7" s="48">
+      <c r="B12" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+    </row>
+    <row r="13" s="94" customFormat="1" spans="1:9">
+      <c r="A13" s="99">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-    </row>
-    <row r="8" s="97" customFormat="1" spans="1:9">
-      <c r="A8" s="48">
+      <c r="B13" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+    </row>
+    <row r="14" s="94" customFormat="1" spans="1:9">
+      <c r="A14" s="99">
         <v>3</v>
       </c>
-      <c r="B8" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" s="97" customFormat="1" spans="1:9">
-      <c r="A9" s="48">
+      <c r="B14" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+    </row>
+    <row r="15" s="94" customFormat="1" spans="1:9">
+      <c r="A15" s="99">
         <v>4</v>
       </c>
-      <c r="B9" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-    </row>
-    <row r="10" s="97" customFormat="1" spans="1:9">
-      <c r="A10" s="48">
+      <c r="B15" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+    </row>
+    <row r="16" s="94" customFormat="1" spans="1:9">
+      <c r="A16" s="99">
         <v>5</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-    </row>
-    <row r="11" s="97" customFormat="1" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-    </row>
-    <row r="12" s="97" customFormat="1" spans="1:9">
-      <c r="A12" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-    </row>
-    <row r="13" s="97" customFormat="1" spans="1:9">
-      <c r="A13" s="103">
+      <c r="B16" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+    </row>
+    <row r="17" s="94" customFormat="1" spans="1:9">
+      <c r="A17" s="99">
+        <v>6</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" s="94" customFormat="1" spans="9:9">
+      <c r="I18" s="103"/>
+    </row>
+    <row r="19" s="94" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="103"/>
+    </row>
+    <row r="20" s="94" customFormat="1" ht="45" spans="1:7">
+      <c r="A20" s="65">
         <v>1</v>
       </c>
-      <c r="B13" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-    </row>
-    <row r="14" s="97" customFormat="1" spans="1:9">
-      <c r="A14" s="103">
+      <c r="B20" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="103"/>
+    </row>
+    <row r="21" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A21" s="74">
         <v>2</v>
       </c>
-      <c r="B14" s="105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" s="97" customFormat="1" spans="1:9">
-      <c r="A15" s="103">
+      <c r="B21" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" s="94" customFormat="1" spans="1:6">
+      <c r="A22" s="106">
         <v>3</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-    </row>
-    <row r="16" s="97" customFormat="1" spans="1:9">
-      <c r="A16" s="103">
+      <c r="B22" s="107" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="74"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" s="94" customFormat="1" ht="60" spans="1:6">
+      <c r="A23" s="73">
         <v>4</v>
       </c>
-      <c r="B16" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-    </row>
-    <row r="17" s="97" customFormat="1" spans="1:9">
-      <c r="A17" s="103">
-        <v>5</v>
-      </c>
-      <c r="B17" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-    </row>
-    <row r="18" s="97" customFormat="1" spans="1:9">
-      <c r="A18" s="103">
+      <c r="B23" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" s="94" customFormat="1" spans="1:6">
+      <c r="A24" s="106">
+        <v>3</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="74"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A25" s="74">
         <v>6</v>
       </c>
-      <c r="B18" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-    </row>
-    <row r="19" s="97" customFormat="1" spans="9:9">
-      <c r="I19" s="131"/>
-    </row>
-    <row r="20" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A20" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="131"/>
-    </row>
-    <row r="21" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A21" s="47">
-        <v>1</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" s="108"/>
-      <c r="I21" s="131"/>
-    </row>
-    <row r="22" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A22" s="48">
-        <v>2</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" s="97" customFormat="1" spans="1:8">
-      <c r="A23" s="109">
-        <v>3</v>
-      </c>
-      <c r="B23" s="110" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" s="97" customFormat="1" ht="60" spans="1:8">
-      <c r="A24" s="70">
-        <v>4</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" s="97" customFormat="1" spans="1:8">
-      <c r="A25" s="109">
-        <v>3</v>
-      </c>
-      <c r="B25" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A26" s="48">
-        <v>6</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="99" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A27" s="48">
+      <c r="B25" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="95"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="74">
         <v>7</v>
       </c>
-      <c r="B27" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="111"/>
-    </row>
-    <row r="28" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A28" s="109">
+      <c r="B26" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="65"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="108"/>
+    </row>
+    <row r="27" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A27" s="106">
         <v>8</v>
       </c>
-      <c r="B28" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="111"/>
-    </row>
-    <row r="29" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A29" s="70"/>
-      <c r="B29" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="111"/>
-    </row>
-    <row r="30" s="97" customFormat="1" ht="30" spans="1:8">
-      <c r="A30" s="48">
+      <c r="B27" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="108"/>
+    </row>
+    <row r="28" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="108"/>
+    </row>
+    <row r="29" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="74">
         <v>9</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="111"/>
-    </row>
-    <row r="31" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A31" s="48">
+      <c r="B29" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="108"/>
+    </row>
+    <row r="30" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A30" s="74">
         <v>10</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="111"/>
-    </row>
-    <row r="32" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A32" s="109">
+      <c r="B30" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="65"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="108"/>
+    </row>
+    <row r="31" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A31" s="106">
         <v>11</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="111"/>
-    </row>
-    <row r="33" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A33" s="70">
+      <c r="B31" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="108"/>
+    </row>
+    <row r="32" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A32" s="73">
         <v>12</v>
       </c>
-      <c r="B33" s="112" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="111"/>
-    </row>
-    <row r="34" s="97" customFormat="1" spans="1:8">
-      <c r="A34" s="113"/>
+      <c r="B32" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="109"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="108"/>
+    </row>
+    <row r="33" s="94" customFormat="1" spans="1:6">
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+    </row>
+    <row r="34" s="94" customFormat="1" spans="1:6">
+      <c r="A34" s="110"/>
       <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-    </row>
-    <row r="35" s="97" customFormat="1" spans="1:8">
-      <c r="A35" s="113"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="115"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+    </row>
+    <row r="35" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="115" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="116"/>
       <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-    </row>
-    <row r="36" s="97" customFormat="1" spans="1:8">
-      <c r="A36" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-    </row>
-    <row r="37" s="97" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A37" s="120">
+    </row>
+    <row r="36" s="94" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A36" s="117">
         <v>13</v>
       </c>
-      <c r="B37" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="105"/>
-    </row>
-    <row r="38" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A38" s="120">
+      <c r="B36" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="101"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="101"/>
+    </row>
+    <row r="37" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A37" s="117">
         <v>14</v>
       </c>
-      <c r="B38" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="E38" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-    </row>
-    <row r="39" s="97" customFormat="1" ht="60" spans="1:8">
-      <c r="A39" s="120">
+      <c r="B37" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="101"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="101"/>
+    </row>
+    <row r="38" s="94" customFormat="1" ht="60" spans="1:6">
+      <c r="A38" s="117">
         <v>16</v>
       </c>
-      <c r="B39" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-    </row>
-    <row r="40" s="97" customFormat="1" spans="1:8">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" s="97" customFormat="1" spans="1:8">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-    </row>
-    <row r="42" s="97" customFormat="1" ht="45" spans="1:8">
-      <c r="A42" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="125" t="s">
+      <c r="B38" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+    </row>
+    <row r="39" s="94" customFormat="1" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" s="94" customFormat="1" spans="1:8">
+      <c r="A40" s="118"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+    </row>
+    <row r="41" s="94" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="F41" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A43" s="91">
+    </row>
+    <row r="42" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A42" s="92">
         <v>1</v>
       </c>
-      <c r="B43" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="116"/>
-    </row>
-    <row r="44" s="97" customFormat="1" ht="45" spans="1:9">
+      <c r="B42" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="101"/>
+    </row>
+    <row r="43" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A43" s="52"/>
+      <c r="B43" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="101"/>
+    </row>
+    <row r="44" s="94" customFormat="1" ht="45" spans="1:6">
       <c r="A44" s="52"/>
-      <c r="B44" s="94" t="s">
-        <v>172</v>
+      <c r="B44" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="116"/>
-    </row>
-    <row r="45" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A45" s="52"/>
-      <c r="B45" s="94" t="s">
-        <v>173</v>
+        <v>91</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="101"/>
+    </row>
+    <row r="45" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A45" s="52">
+        <v>2</v>
+      </c>
+      <c r="B45" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="116"/>
-    </row>
-    <row r="46" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A46" s="52">
-        <v>2</v>
-      </c>
-      <c r="B46" s="94" t="s">
-        <v>174</v>
+        <v>97</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="101"/>
+    </row>
+    <row r="46" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A46" s="52"/>
+      <c r="B46" s="93" t="s">
+        <v>136</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="116"/>
-    </row>
-    <row r="47" s="97" customFormat="1" ht="45" spans="1:9">
+        <v>89</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="101"/>
+    </row>
+    <row r="47" s="94" customFormat="1" ht="45" spans="1:6">
       <c r="A47" s="52"/>
-      <c r="B47" s="94" t="s">
-        <v>175</v>
+      <c r="B47" s="93" t="s">
+        <v>137</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="116"/>
-    </row>
-    <row r="48" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A48" s="52"/>
-      <c r="B48" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="116"/>
-    </row>
-    <row r="49" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A49" s="94">
+        <v>91</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="101"/>
+    </row>
+    <row r="48" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="93">
         <v>3</v>
       </c>
-      <c r="B49" s="128" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="128" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="129"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="116"/>
-    </row>
-    <row r="50" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A50" s="94"/>
-      <c r="B50" s="128" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="129"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="116"/>
-    </row>
-    <row r="51" s="97" customFormat="1" ht="45" spans="1:9">
-      <c r="A51" s="94"/>
-      <c r="B51" s="128" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="130" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="129"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="116"/>
+      <c r="B48" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="122"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+    </row>
+    <row r="49" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="93"/>
+      <c r="B49" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="122"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+    </row>
+    <row r="50" s="94" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="93"/>
+      <c r="B50" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="122"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A49:A51"/>
+  <mergeCells count="4">
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5605,10 +4809,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5617,33 +4821,28 @@
     <col min="2" max="2" width="62.2857142857143" style="44" customWidth="1"/>
     <col min="3" max="3" width="58.2857142857143" style="44" customWidth="1"/>
     <col min="4" max="4" width="49.2857142857143" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16" style="44" customWidth="1"/>
+    <col min="5" max="5" width="35.7142857142857" style="44" customWidth="1"/>
     <col min="6" max="6" width="46.8571428571429" style="44" customWidth="1"/>
-    <col min="7" max="7" width="20.1428571428571" style="44" customWidth="1"/>
+    <col min="7" max="7" width="35.7142857142857" style="44" customWidth="1"/>
     <col min="8" max="8" width="10.2857142857143" style="44" customWidth="1"/>
     <col min="9" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" s="44" customFormat="1" ht="52" customHeight="1" spans="1:9">
+    <row r="1" s="44" customFormat="1" ht="52" customHeight="1" spans="1:4">
       <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" s="44" customFormat="1" spans="1:9">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" s="44" customFormat="1" spans="1:4">
       <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
@@ -5653,59 +4852,53 @@
       <c r="C2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" s="44" customFormat="1" spans="1:8">
+      <c r="A5" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" s="44" customFormat="1" spans="1:8">
-      <c r="A6" s="45" t="s">
+      <c r="C5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="45" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" s="44" customFormat="1" ht="75" spans="1:8">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="51"/>
@@ -5713,60 +4906,52 @@
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" s="44" customFormat="1" ht="45" spans="1:8">
+    <row r="7" s="44" customFormat="1" ht="30" spans="1:8">
       <c r="A7" s="46">
-        <v>1</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>184</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="51"/>
-      <c r="D7" s="49" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" s="44" customFormat="1" ht="30" spans="1:8">
+    <row r="8" s="44" customFormat="1" spans="1:9">
       <c r="A8" s="46">
-        <v>2</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" s="44" customFormat="1" spans="1:9">
       <c r="A9" s="46">
-        <v>3</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" s="44" customFormat="1" spans="1:9">
-      <c r="A10" s="46">
-        <v>4</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -5776,8 +4961,12 @@
       <c r="I10" s="51"/>
     </row>
     <row r="11" s="44" customFormat="1" spans="1:9">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -5787,11 +4976,11 @@
       <c r="I11" s="51"/>
     </row>
     <row r="12" s="44" customFormat="1" spans="1:9">
-      <c r="A12" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>26</v>
+      <c r="A12" s="56">
+        <v>1</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
@@ -5802,959 +4991,637 @@
       <c r="I12" s="51"/>
     </row>
     <row r="13" s="44" customFormat="1" spans="1:9">
-      <c r="A13" s="55">
+      <c r="A13" s="56">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" s="44" customFormat="1" spans="1:9">
+      <c r="A14" s="56">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" s="44" customFormat="1" spans="1:9">
+      <c r="A15" s="56">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" s="44" customFormat="1" spans="1:9">
+      <c r="A16" s="56">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" s="44" customFormat="1" spans="1:9">
+      <c r="A17" s="56">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:9">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" s="44" customFormat="1" spans="9:9">
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" s="44" customFormat="1" spans="1:7">
+      <c r="A20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="62"/>
+    </row>
+    <row r="21" s="44" customFormat="1" ht="45" spans="1:7">
+      <c r="A21" s="63">
         <v>1</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B21" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="62"/>
+    </row>
+    <row r="22" s="44" customFormat="1" spans="1:7">
+      <c r="A22" s="63">
+        <v>2</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="69">
+        <v>3</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A24" s="71"/>
+      <c r="B24" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" s="44" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A25" s="73">
+        <v>4</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="69">
+        <v>5</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" s="44" customFormat="1" spans="1:6">
+      <c r="A27" s="75"/>
+      <c r="B27" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="69">
+        <v>8</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="76"/>
+    </row>
+    <row r="29" s="44" customFormat="1" spans="1:6">
+      <c r="A29" s="75"/>
+      <c r="B29" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="76"/>
+    </row>
+    <row r="30" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A30" s="69">
+        <v>9</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="76"/>
+    </row>
+    <row r="31" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="75"/>
+      <c r="B31" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="76"/>
+    </row>
+    <row r="32" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="75">
+        <v>10</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="76"/>
+    </row>
+    <row r="33" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="75">
+        <v>11</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="74"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="76"/>
+    </row>
+    <row r="34" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="75">
+        <v>12</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="74"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="76"/>
+    </row>
+    <row r="35" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="75">
+        <v>13</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="76"/>
+    </row>
+    <row r="36" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="75">
+        <v>14</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="74"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="76"/>
+    </row>
+    <row r="37" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="75">
+        <v>15</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="74"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="76"/>
+    </row>
+    <row r="38" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="75">
+        <v>16</v>
+      </c>
+      <c r="B38" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="74"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="76"/>
+    </row>
+    <row r="39" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="75">
+        <v>17</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="74"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="76"/>
+    </row>
+    <row r="40" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="75">
+        <v>18</v>
+      </c>
+      <c r="B40" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="74"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="76"/>
+    </row>
+    <row r="41" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A41" s="75">
+        <v>19</v>
+      </c>
+      <c r="B41" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="74"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="76"/>
+    </row>
+    <row r="42" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A42" s="75"/>
+      <c r="B42" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="78"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" s="44" customFormat="1" spans="1:6">
+      <c r="A43" s="79"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+    </row>
+    <row r="44" s="44" customFormat="1" spans="1:6">
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+    </row>
+    <row r="45" s="44" customFormat="1" spans="1:6">
+      <c r="A45" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+    </row>
+    <row r="46" s="44" customFormat="1" ht="60" spans="1:6">
+      <c r="A46" s="85">
+        <v>21</v>
+      </c>
+      <c r="B46" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A47" s="85">
+        <v>22</v>
+      </c>
+      <c r="B47" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="52"/>
+    </row>
+    <row r="48" s="44" customFormat="1" ht="60" spans="1:6">
+      <c r="A48" s="76">
+        <v>24</v>
+      </c>
+      <c r="B48" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" s="44" customFormat="1" spans="1:8">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" s="44" customFormat="1" spans="1:6">
+      <c r="A50" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="90">
+        <v>25</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="92"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A52" s="20"/>
+      <c r="B52" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A53" s="20"/>
+      <c r="B53" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A54" s="20">
+        <v>26</v>
+      </c>
+      <c r="B54" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A55" s="20"/>
+      <c r="B55" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A56" s="20"/>
+      <c r="B56" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A57" s="20">
+        <v>27</v>
+      </c>
+      <c r="B57" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="76"/>
+    </row>
+    <row r="58" s="44" customFormat="1" ht="45" spans="1:6">
+      <c r="A58" s="20"/>
+      <c r="B58" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" s="44" customFormat="1" spans="1:9">
-      <c r="A14" s="55">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-    </row>
-    <row r="15" s="44" customFormat="1" spans="1:9">
-      <c r="A15" s="55">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-    </row>
-    <row r="16" s="44" customFormat="1" spans="1:9">
-      <c r="A16" s="55">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-    </row>
-    <row r="17" s="44" customFormat="1" spans="1:9">
-      <c r="A17" s="55">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-    </row>
-    <row r="18" s="44" customFormat="1" spans="1:9">
-      <c r="A18" s="55">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:9">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" s="44" customFormat="1" spans="9:9">
-      <c r="I20" s="96"/>
-    </row>
-    <row r="21" s="44" customFormat="1" spans="1:9">
-      <c r="A21" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="58" t="s">
+      <c r="C58" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="76"/>
+    </row>
+    <row r="59" s="44" customFormat="1" ht="30" spans="1:6">
+      <c r="A59" s="20"/>
+      <c r="B59" s="93" t="s">
         <v>186</v>
       </c>
-      <c r="G21" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="96"/>
-    </row>
-    <row r="22" s="44" customFormat="1" ht="45" spans="1:9">
-      <c r="A22" s="61">
-        <v>1</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="G22" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="96"/>
-    </row>
-    <row r="23" s="44" customFormat="1" spans="1:9">
-      <c r="A23" s="61">
-        <v>2</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="E23" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="96"/>
-    </row>
-    <row r="24" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A24" s="66">
-        <v>3</v>
-      </c>
-      <c r="B24" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" s="44" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
-      <c r="A26" s="70">
-        <v>4</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="49"/>
-    </row>
-    <row r="27" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A27" s="66">
-        <v>5</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="49"/>
-    </row>
-    <row r="28" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A28" s="71"/>
-      <c r="B28" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="49"/>
-    </row>
-    <row r="29" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A29" s="66">
-        <v>8</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="72"/>
-    </row>
-    <row r="30" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A30" s="71"/>
-      <c r="B30" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="72"/>
-    </row>
-    <row r="31" s="44" customFormat="1" ht="60" spans="1:8">
-      <c r="A31" s="66">
-        <v>9</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="72"/>
-    </row>
-    <row r="32" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A32" s="71"/>
-      <c r="B32" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A33" s="71">
-        <v>10</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A34" s="71">
-        <v>11</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="72"/>
-    </row>
-    <row r="35" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A35" s="71">
-        <v>12</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="72"/>
-    </row>
-    <row r="36" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A36" s="71">
-        <v>13</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="72"/>
-    </row>
-    <row r="37" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A37" s="71">
-        <v>14</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D37" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="72"/>
-    </row>
-    <row r="38" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A38" s="71">
-        <v>15</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="G38" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="72"/>
-    </row>
-    <row r="39" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A39" s="71">
-        <v>16</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="72"/>
-    </row>
-    <row r="40" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A40" s="71">
-        <v>17</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>232</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="72"/>
-    </row>
-    <row r="41" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A41" s="71">
-        <v>18</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="G41" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="72"/>
-    </row>
-    <row r="42" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A42" s="71">
-        <v>19</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H42" s="72"/>
-    </row>
-    <row r="43" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A43" s="71"/>
-      <c r="B43" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="H43" s="55"/>
-    </row>
-    <row r="44" s="44" customFormat="1" spans="1:8">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-    </row>
-    <row r="45" s="44" customFormat="1" spans="1:8">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-    </row>
-    <row r="46" s="44" customFormat="1" spans="1:8">
-      <c r="A46" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-    </row>
-    <row r="47" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A47" s="82">
-        <v>21</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="52"/>
-    </row>
-    <row r="48" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A48" s="82">
-        <v>22</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-    </row>
-    <row r="49" s="44" customFormat="1" ht="75" spans="1:8">
-      <c r="A49" s="85">
-        <v>24</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-    </row>
-    <row r="50" s="44" customFormat="1" spans="1:8">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" s="44" customFormat="1" spans="1:8">
-      <c r="A51" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A52" s="89">
-        <v>25</v>
-      </c>
-      <c r="B52" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="93"/>
-    </row>
-    <row r="53" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A53" s="20"/>
-      <c r="B53" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A54" s="20"/>
-      <c r="B54" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A55" s="20">
-        <v>26</v>
-      </c>
-      <c r="B55" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A56" s="20"/>
-      <c r="B56" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A57" s="20"/>
-      <c r="B57" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A58" s="20">
-        <v>27</v>
-      </c>
-      <c r="B58" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-    </row>
-    <row r="59" s="44" customFormat="1" ht="45" spans="1:8">
-      <c r="A59" s="20"/>
-      <c r="B59" s="94" t="s">
-        <v>246</v>
-      </c>
       <c r="C59" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-    </row>
-    <row r="60" s="44" customFormat="1" ht="30" spans="1:8">
-      <c r="A60" s="20"/>
-      <c r="B60" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
+        <v>91</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
+  <mergeCells count="8">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6766,8 +5633,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -6787,7 +5654,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="26" t="s">
@@ -6810,7 +5677,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -6822,17 +5689,17 @@
     </row>
     <row r="4" s="25" customFormat="1" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
@@ -6842,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="36">
@@ -6857,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="38"/>
@@ -6874,10 +5741,10 @@
     </row>
     <row r="8" s="25" customFormat="1" ht="63" customHeight="1" spans="1:7">
       <c r="A8" s="39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="30"/>
@@ -6914,25 +5781,25 @@
     </row>
     <row r="12" s="25" customFormat="1" ht="15.75" spans="1:7">
       <c r="A12" s="40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="1" ht="60" spans="1:7">
@@ -6940,13 +5807,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
@@ -6957,13 +5824,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -6974,13 +5841,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -7037,14 +5904,14 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7074,18 +5941,18 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7095,13 +5962,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7127,10 +5994,10 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7142,7 +6009,7 @@
     <row r="9" s="1" customFormat="1" ht="60" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -7173,16 +6040,16 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7191,7 +6058,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7204,11 +6071,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="16" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7219,11 +6086,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="16" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -7234,11 +6101,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="16" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7249,11 +6116,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="16" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7262,7 +6129,7 @@
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -7275,11 +6142,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="16" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7290,11 +6157,11 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="16" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7305,11 +6172,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="8" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7320,11 +6187,11 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7333,7 +6200,7 @@
     <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="12" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
@@ -7346,11 +6213,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="8" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7359,7 +6226,7 @@
     <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="15"/>
       <c r="B25" s="12" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
@@ -7372,11 +6239,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -7387,11 +6254,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="8" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7402,11 +6269,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="8" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7417,7 +6284,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
@@ -7430,7 +6297,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
@@ -7441,7 +6308,7 @@
     <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
@@ -7454,11 +6321,11 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -7469,11 +6336,11 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7484,11 +6351,11 @@
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7499,11 +6366,11 @@
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="8" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7514,11 +6381,11 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="8" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7529,11 +6396,11 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="8" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -7544,11 +6411,11 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="8" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -7559,11 +6426,11 @@
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="8" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -7574,11 +6441,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="8" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -7589,11 +6456,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="8" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -7604,11 +6471,11 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="8" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -7619,11 +6486,11 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="8" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -7634,11 +6501,11 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="8" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -7649,11 +6516,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -7664,11 +6531,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -7679,7 +6546,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -7692,11 +6559,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -7707,7 +6574,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
@@ -7720,11 +6587,11 @@
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -7735,7 +6602,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -7748,7 +6615,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
@@ -7761,7 +6628,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
@@ -7774,7 +6641,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="8"/>
@@ -7794,7 +6661,7 @@
     <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="20"/>
       <c r="B56" s="21" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="8"/>
@@ -7807,11 +6674,11 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="8" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -7829,7 +6696,7 @@
     <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="20"/>
       <c r="B59" s="12" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="8"/>
@@ -7842,11 +6709,11 @@
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="8" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -7857,11 +6724,11 @@
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="8" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -7872,11 +6739,11 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="8" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -7887,14 +6754,14 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="8" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -7904,11 +6771,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="8" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -7919,11 +6786,11 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="8" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -7934,11 +6801,11 @@
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="8" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -7949,11 +6816,11 @@
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="8" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -7964,11 +6831,11 @@
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -7979,11 +6846,11 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="8" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -7994,11 +6861,11 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="8" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -8009,11 +6876,11 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="8" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -8024,11 +6891,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="8" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
@@ -8039,11 +6906,11 @@
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="8" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="8"/>
@@ -8054,11 +6921,11 @@
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="8" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="8"/>
@@ -8069,11 +6936,11 @@
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="8" t="s">
-        <v>375</v>
+        <v>314</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="8"/>
@@ -8084,11 +6951,11 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="8" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8099,11 +6966,11 @@
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="8" t="s">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8112,7 +6979,7 @@
     <row r="78" s="1" customFormat="1" spans="1:7">
       <c r="A78" s="20"/>
       <c r="B78" s="23" t="s">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -8125,11 +6992,11 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>381</v>
+        <v>320</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>382</v>
+        <v>321</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="3"/>
@@ -8140,11 +7007,11 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>383</v>
+        <v>322</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="3"/>
@@ -8155,11 +7022,11 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>386</v>
+        <v>325</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="3"/>
